--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icos-Icosl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icos-Icosl.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.009971333333333334</v>
+        <v>0.08351433333333334</v>
       </c>
       <c r="H2">
-        <v>0.029914</v>
+        <v>0.250543</v>
       </c>
       <c r="I2">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="J2">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.031958</v>
+        <v>0.6721510000000001</v>
       </c>
       <c r="N2">
-        <v>36.095874</v>
+        <v>2.016453</v>
       </c>
       <c r="O2">
-        <v>0.3974294583370787</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="P2">
-        <v>0.3974294583370788</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="Q2">
-        <v>0.1199746638706667</v>
+        <v>0.05613424266433335</v>
       </c>
       <c r="R2">
-        <v>1.079771974836</v>
+        <v>0.5052081839790001</v>
       </c>
       <c r="S2">
-        <v>0.01516325528532776</v>
+        <v>0.008861861560324058</v>
       </c>
       <c r="T2">
-        <v>0.01516325528532776</v>
+        <v>0.00886186156032406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.009971333333333334</v>
+        <v>0.08351433333333334</v>
       </c>
       <c r="H3">
-        <v>0.029914</v>
+        <v>0.250543</v>
       </c>
       <c r="I3">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="J3">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.25501433333333</v>
+        <v>15.25501433333334</v>
       </c>
       <c r="N3">
-        <v>45.765043</v>
+        <v>45.76504300000001</v>
       </c>
       <c r="O3">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="P3">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="Q3">
-        <v>0.1521128329224445</v>
+        <v>1.274012352038778</v>
       </c>
       <c r="R3">
-        <v>1.369015496302</v>
+        <v>11.466111168349</v>
       </c>
       <c r="S3">
-        <v>0.01922510672973321</v>
+        <v>0.2011271650607664</v>
       </c>
       <c r="T3">
-        <v>0.01922510672973321</v>
+        <v>0.2011271650607664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.009971333333333334</v>
+        <v>0.08351433333333334</v>
       </c>
       <c r="H4">
-        <v>0.029914</v>
+        <v>0.250543</v>
       </c>
       <c r="I4">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="J4">
-        <v>0.03815332499199665</v>
+        <v>0.2493769135522298</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.962431</v>
       </c>
       <c r="O4">
-        <v>0.09867981303662136</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="P4">
-        <v>0.09867981303662139</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="Q4">
-        <v>0.02978912899266667</v>
+        <v>0.2494971500036667</v>
       </c>
       <c r="R4">
-        <v>0.268102160934</v>
+        <v>2.245474350033</v>
       </c>
       <c r="S4">
-        <v>0.003764962976935683</v>
+        <v>0.03938788693113934</v>
       </c>
       <c r="T4">
-        <v>0.003764962976935684</v>
+        <v>0.03938788693113934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.074112</v>
       </c>
       <c r="I5">
-        <v>0.09452494557086501</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="J5">
-        <v>0.09452494557086502</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.031958</v>
+        <v>0.6721510000000001</v>
       </c>
       <c r="N5">
-        <v>36.095874</v>
+        <v>2.016453</v>
       </c>
       <c r="O5">
-        <v>0.3974294583370787</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="P5">
-        <v>0.3974294583370788</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="Q5">
-        <v>0.297237490432</v>
+        <v>0.016604818304</v>
       </c>
       <c r="R5">
-        <v>2.675137413888</v>
+        <v>0.149443364736</v>
       </c>
       <c r="S5">
-        <v>0.03756699791757073</v>
+        <v>0.002621387482223557</v>
       </c>
       <c r="T5">
-        <v>0.03756699791757074</v>
+        <v>0.002621387482223557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.074112</v>
       </c>
       <c r="I6">
-        <v>0.09452494557086501</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="J6">
-        <v>0.09452494557086502</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.25501433333333</v>
+        <v>15.25501433333334</v>
       </c>
       <c r="N6">
-        <v>45.765043</v>
+        <v>45.76504300000001</v>
       </c>
       <c r="O6">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="P6">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="Q6">
         <v>0.3768598740906667</v>
@@ -818,10 +818,10 @@
         <v>3.391738866816</v>
       </c>
       <c r="S6">
-        <v>0.04763024369706451</v>
+        <v>0.05949452372240901</v>
       </c>
       <c r="T6">
-        <v>0.04763024369706451</v>
+        <v>0.05949452372240901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.074112</v>
       </c>
       <c r="I7">
-        <v>0.09452494557086501</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="J7">
-        <v>0.09452494557086502</v>
+        <v>0.07376706520311026</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.962431</v>
       </c>
       <c r="O7">
-        <v>0.09867981303662136</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="P7">
-        <v>0.09867981303662139</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="Q7">
         <v>0.07380263180800001</v>
@@ -880,10 +880,10 @@
         <v>0.664223686272</v>
       </c>
       <c r="S7">
-        <v>0.00932770395622977</v>
+        <v>0.0116511539984777</v>
       </c>
       <c r="T7">
-        <v>0.009327703956229774</v>
+        <v>0.0116511539984777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.680021</v>
       </c>
       <c r="I8">
-        <v>0.8673217294371384</v>
+        <v>0.6768560212446599</v>
       </c>
       <c r="J8">
-        <v>0.8673217294371384</v>
+        <v>0.67685602124466</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.031958</v>
+        <v>0.6721510000000001</v>
       </c>
       <c r="N8">
-        <v>36.095874</v>
+        <v>2.016453</v>
       </c>
       <c r="O8">
-        <v>0.3974294583370787</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="P8">
-        <v>0.3974294583370788</v>
+        <v>0.03553601427691108</v>
       </c>
       <c r="Q8">
-        <v>2.727328037039333</v>
+        <v>0.1523589317236667</v>
       </c>
       <c r="R8">
-        <v>24.545952333354</v>
+        <v>1.371230385513</v>
       </c>
       <c r="S8">
-        <v>0.3446992051341802</v>
+        <v>0.02405276523436347</v>
       </c>
       <c r="T8">
-        <v>0.3446992051341803</v>
+        <v>0.02405276523436347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.680021</v>
       </c>
       <c r="I9">
-        <v>0.8673217294371384</v>
+        <v>0.6768560212446599</v>
       </c>
       <c r="J9">
-        <v>0.8673217294371384</v>
+        <v>0.67685602124466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.25501433333333</v>
+        <v>15.25501433333334</v>
       </c>
       <c r="N9">
-        <v>45.765043</v>
+        <v>45.76504300000001</v>
       </c>
       <c r="O9">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="P9">
-        <v>0.5038907286262999</v>
+        <v>0.8065187839396453</v>
       </c>
       <c r="Q9">
-        <v>3.457910033989222</v>
+        <v>3.457910033989223</v>
       </c>
       <c r="R9">
         <v>31.121190305903</v>
       </c>
       <c r="S9">
-        <v>0.4370353781995022</v>
+        <v>0.5458970951564698</v>
       </c>
       <c r="T9">
-        <v>0.4370353781995022</v>
+        <v>0.5458970951564699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.680021</v>
       </c>
       <c r="I10">
-        <v>0.8673217294371384</v>
+        <v>0.6768560212446599</v>
       </c>
       <c r="J10">
-        <v>0.8673217294371384</v>
+        <v>0.67685602124466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.962431</v>
       </c>
       <c r="O10">
-        <v>0.09867981303662136</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="P10">
-        <v>0.09867981303662139</v>
+        <v>0.1579452017834437</v>
       </c>
       <c r="Q10">
         <v>0.6771823656723334</v>
@@ -1066,10 +1066,10 @@
         <v>6.094641291051</v>
       </c>
       <c r="S10">
-        <v>0.08558714610345591</v>
+        <v>0.1069061608538267</v>
       </c>
       <c r="T10">
-        <v>0.08558714610345594</v>
+        <v>0.1069061608538267</v>
       </c>
     </row>
   </sheetData>
